--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H2">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I2">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J2">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N2">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O2">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P2">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q2">
-        <v>915.189277105085</v>
+        <v>1964.524040812384</v>
       </c>
       <c r="R2">
-        <v>3660.75710842034</v>
+        <v>7858.096163249535</v>
       </c>
       <c r="S2">
-        <v>0.03755615465247778</v>
+        <v>0.07629961510368427</v>
       </c>
       <c r="T2">
-        <v>0.02259112129703067</v>
+        <v>0.05401519469134047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H3">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I3">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J3">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P3">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q3">
-        <v>33.62960765560234</v>
+        <v>55.20131621906584</v>
       </c>
       <c r="R3">
-        <v>201.777645933614</v>
+        <v>331.207897314395</v>
       </c>
       <c r="S3">
-        <v>0.0013800410227828</v>
+        <v>0.002143948912424496</v>
       </c>
       <c r="T3">
-        <v>0.001245202328182483</v>
+        <v>0.002276665834202319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H4">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I4">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J4">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N4">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O4">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P4">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q4">
-        <v>11.17804233432867</v>
+        <v>1.739045011643333</v>
       </c>
       <c r="R4">
-        <v>67.06825400597199</v>
+        <v>10.43427006986</v>
       </c>
       <c r="S4">
-        <v>0.0004587076106790835</v>
+        <v>6.754229639332802E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004138889897786144</v>
+        <v>7.172336881309518E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H5">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I5">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J5">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N5">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O5">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P5">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q5">
-        <v>327.705618994868</v>
+        <v>741.9629866535699</v>
       </c>
       <c r="R5">
-        <v>1310.822475979472</v>
+        <v>2967.85194661428</v>
       </c>
       <c r="S5">
-        <v>0.01344788801108741</v>
+        <v>0.02881689871274726</v>
       </c>
       <c r="T5">
-        <v>0.008089296469741653</v>
+        <v>0.02040050126405579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H6">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I6">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J6">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N6">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O6">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P6">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q6">
-        <v>605.04774324093</v>
+        <v>4.896640950945</v>
       </c>
       <c r="R6">
-        <v>3630.28645944558</v>
+        <v>29.37984570567</v>
       </c>
       <c r="S6">
-        <v>0.02482903502668539</v>
+        <v>0.0001901793065884515</v>
       </c>
       <c r="T6">
-        <v>0.02240308201810536</v>
+        <v>0.0002019519808392187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H7">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I7">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J7">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N7">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O7">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P7">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q7">
-        <v>12.747028213157</v>
+        <v>4.2971424340625</v>
       </c>
       <c r="R7">
-        <v>76.482169278942</v>
+        <v>25.782854604375</v>
       </c>
       <c r="S7">
-        <v>0.0005230932823504362</v>
+        <v>0.000166895546683712</v>
       </c>
       <c r="T7">
-        <v>0.0004719837760517755</v>
+        <v>0.0001772268857776277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J8">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N8">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O8">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P8">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q8">
-        <v>3861.035115972039</v>
+        <v>5049.199653966331</v>
       </c>
       <c r="R8">
-        <v>23166.21069583223</v>
+        <v>30295.19792379799</v>
       </c>
       <c r="S8">
-        <v>0.158443324852727</v>
+        <v>0.1961044925772325</v>
       </c>
       <c r="T8">
-        <v>0.1429624146923933</v>
+        <v>0.208243953760671</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J9">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P9">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q9">
         <v>141.8778599606926</v>
@@ -1013,10 +1013,10 @@
         <v>1276.900739646233</v>
       </c>
       <c r="S9">
-        <v>0.005822169231812944</v>
+        <v>0.005510355629070713</v>
       </c>
       <c r="T9">
-        <v>0.007879959975291527</v>
+        <v>0.008777194961811988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J10">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N10">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O10">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P10">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q10">
-        <v>47.15834752477044</v>
+        <v>4.469675752804889</v>
       </c>
       <c r="R10">
-        <v>424.425127722934</v>
+        <v>40.227081775244</v>
       </c>
       <c r="S10">
-        <v>0.001935213006863289</v>
+        <v>0.0001735965213417578</v>
       </c>
       <c r="T10">
-        <v>0.00261919577232863</v>
+        <v>0.0002765140065498685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J11">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N11">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O11">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P11">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q11">
-        <v>1382.536852532697</v>
+        <v>1906.985701186852</v>
       </c>
       <c r="R11">
-        <v>8295.221115196184</v>
+        <v>11441.91420712111</v>
       </c>
       <c r="S11">
-        <v>0.05673445826497147</v>
+        <v>0.07406489917456911</v>
       </c>
       <c r="T11">
-        <v>0.05119114457718053</v>
+        <v>0.07864974043327135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J12">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N12">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O12">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P12">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q12">
-        <v>2552.59828970289</v>
+        <v>12.585296632402</v>
       </c>
       <c r="R12">
-        <v>22973.38460732601</v>
+        <v>113.267669691618</v>
       </c>
       <c r="S12">
-        <v>0.1047496714963416</v>
+        <v>0.0004887969141985536</v>
       </c>
       <c r="T12">
-        <v>0.1417724538658046</v>
+        <v>0.0007785823822366102</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J13">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N13">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O13">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P13">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q13">
-        <v>53.77764445729433</v>
+        <v>11.04447165845833</v>
       </c>
       <c r="R13">
-        <v>483.998800115649</v>
+        <v>99.400244926125</v>
       </c>
       <c r="S13">
-        <v>0.002206845712258279</v>
+        <v>0.0004289532319571135</v>
       </c>
       <c r="T13">
-        <v>0.002986834492755546</v>
+        <v>0.0006832601014940102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H14">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I14">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J14">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N14">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O14">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P14">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q14">
-        <v>3055.997885484514</v>
+        <v>3843.303422920742</v>
       </c>
       <c r="R14">
-        <v>18335.98731290708</v>
+        <v>23059.82053752445</v>
       </c>
       <c r="S14">
-        <v>0.1254074234435365</v>
+        <v>0.1492690167203355</v>
       </c>
       <c r="T14">
-        <v>0.113154328795511</v>
+        <v>0.1585092203003371</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H15">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I15">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J15">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P15">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q15">
-        <v>112.2959069300742</v>
+        <v>107.9932864994281</v>
       </c>
       <c r="R15">
-        <v>1010.663162370668</v>
+        <v>971.9395784948531</v>
       </c>
       <c r="S15">
-        <v>0.004608229743301357</v>
+        <v>0.004194321892991887</v>
       </c>
       <c r="T15">
-        <v>0.006236965036286891</v>
+        <v>0.006680944655035746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H16">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I16">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J16">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N16">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O16">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P16">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q16">
-        <v>37.32569271967377</v>
+        <v>3.402186741933778</v>
       </c>
       <c r="R16">
-        <v>335.931234477064</v>
+        <v>30.619680677404</v>
       </c>
       <c r="S16">
-        <v>0.001531715376654235</v>
+        <v>0.000132136605878877</v>
       </c>
       <c r="T16">
-        <v>0.002073085714448663</v>
+        <v>0.0002104743921195168</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H17">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I17">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J17">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N17">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O17">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P17">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q17">
-        <v>1094.273833580677</v>
+        <v>1451.541863090132</v>
       </c>
       <c r="R17">
-        <v>6565.643001484063</v>
+        <v>8709.251178540791</v>
       </c>
       <c r="S17">
-        <v>0.04490515607450327</v>
+        <v>0.05637603977341141</v>
       </c>
       <c r="T17">
-        <v>0.04051763967031702</v>
+        <v>0.0598658871374935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H18">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I18">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J18">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N18">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O18">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P18">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q18">
-        <v>2020.37400373644</v>
+        <v>9.579560512682001</v>
       </c>
       <c r="R18">
-        <v>18183.36603362796</v>
+        <v>86.216044614138</v>
       </c>
       <c r="S18">
-        <v>0.08290905546903493</v>
+        <v>0.0003720579462483112</v>
       </c>
       <c r="T18">
-        <v>0.1122124783174304</v>
+        <v>0.0005926341875439933</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H19">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I19">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J19">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N19">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O19">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P19">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q19">
-        <v>42.56484668268933</v>
+        <v>8.406729509291667</v>
       </c>
       <c r="R19">
-        <v>383.083620144204</v>
+        <v>75.660565583625</v>
       </c>
       <c r="S19">
-        <v>0.001746711860338518</v>
+        <v>0.0003265066817784984</v>
       </c>
       <c r="T19">
-        <v>0.002364070675346653</v>
+        <v>0.0005200776492873088</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H20">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I20">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J20">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N20">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O20">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P20">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q20">
-        <v>1046.37602586216</v>
+        <v>1833.339889850805</v>
       </c>
       <c r="R20">
-        <v>4185.50410344864</v>
+        <v>7333.35955940322</v>
       </c>
       <c r="S20">
-        <v>0.04293959821757404</v>
+        <v>0.07120458953101021</v>
       </c>
       <c r="T20">
-        <v>0.02582941945881504</v>
+        <v>0.05040824598142412</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H21">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I21">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J21">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P21">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q21">
-        <v>38.45020488142401</v>
+        <v>51.51516239772334</v>
       </c>
       <c r="R21">
-        <v>230.7012292885441</v>
+        <v>309.09097438634</v>
       </c>
       <c r="S21">
-        <v>0.001577861407548383</v>
+        <v>0.002000783386353814</v>
       </c>
       <c r="T21">
-        <v>0.001423694416175165</v>
+        <v>0.002124637929082074</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H22">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I22">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J22">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N22">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O22">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P22">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q22">
-        <v>12.780345888352</v>
+        <v>1.622917573853333</v>
       </c>
       <c r="R22">
-        <v>76.682075330112</v>
+        <v>9.73750544312</v>
       </c>
       <c r="S22">
-        <v>0.0005244605227602479</v>
+        <v>6.303205440988556E-05</v>
       </c>
       <c r="T22">
-        <v>0.0004732174284674477</v>
+        <v>6.693392921022872E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H23">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I23">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J23">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N23">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O23">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P23">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q23">
-        <v>374.6802020465281</v>
+        <v>692.41725322044</v>
       </c>
       <c r="R23">
-        <v>1498.720808186112</v>
+        <v>2769.66901288176</v>
       </c>
       <c r="S23">
-        <v>0.01537555996918142</v>
+        <v>0.0268926054424983</v>
       </c>
       <c r="T23">
-        <v>0.009248847319107256</v>
+        <v>0.01903822603508528</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H24">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I24">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J24">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N24">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O24">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P24">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q24">
-        <v>691.7776124212801</v>
+        <v>4.56966012894</v>
       </c>
       <c r="R24">
-        <v>4150.66567452768</v>
+        <v>27.41796077364</v>
       </c>
       <c r="S24">
-        <v>0.02838812434450351</v>
+        <v>0.0001774797873425832</v>
       </c>
       <c r="T24">
-        <v>0.0256144259068689</v>
+        <v>0.0001884663229439626</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H25">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I25">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J25">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N25">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O25">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P25">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q25">
-        <v>14.574236233872</v>
+        <v>4.01019405875</v>
       </c>
       <c r="R25">
-        <v>87.445417403232</v>
+        <v>24.0611643525</v>
       </c>
       <c r="S25">
-        <v>0.0005980754840926675</v>
+        <v>0.0001557508367508585</v>
       </c>
       <c r="T25">
-        <v>0.0005396397447079842</v>
+        <v>0.0001653922845941835</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H26">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I26">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J26">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N26">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O26">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P26">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q26">
-        <v>926.5382753405951</v>
+        <v>1869.679205380928</v>
       </c>
       <c r="R26">
-        <v>5559.229652043569</v>
+        <v>11218.07523228557</v>
       </c>
       <c r="S26">
-        <v>0.03802187769310577</v>
+        <v>0.07261596232690286</v>
       </c>
       <c r="T26">
-        <v>0.03430690091360885</v>
+        <v>0.07711111001261074</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H27">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I27">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J27">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P27">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q27">
-        <v>34.04663871954967</v>
+        <v>52.53626369558945</v>
       </c>
       <c r="R27">
-        <v>306.419748475947</v>
+        <v>472.8263732603051</v>
       </c>
       <c r="S27">
-        <v>0.001397154513428183</v>
+        <v>0.002040441662043248</v>
       </c>
       <c r="T27">
-        <v>0.001890965584606302</v>
+        <v>0.003250126757967085</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H28">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I28">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J28">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N28">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O28">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P28">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q28">
-        <v>11.31665801296733</v>
+        <v>1.655086029971111</v>
       </c>
       <c r="R28">
-        <v>101.849922116706</v>
+        <v>14.89577426974</v>
       </c>
       <c r="S28">
-        <v>0.0004643959114431386</v>
+        <v>6.4281436331041E-05</v>
       </c>
       <c r="T28">
-        <v>0.0006285322616294797</v>
+        <v>0.0001023909774763488</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H29">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I29">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J29">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N29">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O29">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P29">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q29">
-        <v>331.769401848076</v>
+        <v>706.14191452442</v>
       </c>
       <c r="R29">
-        <v>1990.616411088456</v>
+        <v>4236.85148714652</v>
       </c>
       <c r="S29">
-        <v>0.01361465139121784</v>
+        <v>0.02742565383140428</v>
       </c>
       <c r="T29">
-        <v>0.01228441425281132</v>
+        <v>0.02912338474894373</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H30">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I30">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J30">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N30">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O30">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P30">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q30">
-        <v>612.5507657765099</v>
+        <v>4.66023707117</v>
       </c>
       <c r="R30">
-        <v>5512.956891988589</v>
+        <v>41.94213364053</v>
       </c>
       <c r="S30">
-        <v>0.02513693272802058</v>
+        <v>0.0001809976805756738</v>
       </c>
       <c r="T30">
-        <v>0.03402134426393494</v>
+        <v>0.0002883029766113982</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H31">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I31">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J31">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N31">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O31">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P31">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q31">
-        <v>12.905100433099</v>
+        <v>4.089681614791667</v>
       </c>
       <c r="R31">
-        <v>116.145903897891</v>
+        <v>36.807134533125</v>
       </c>
       <c r="S31">
-        <v>0.0005295800112565929</v>
+        <v>0.0001588380323287776</v>
       </c>
       <c r="T31">
-        <v>0.0007167550660695844</v>
+        <v>0.0002530058803728048</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H32">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I32">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J32">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.939895</v>
+        <v>18.2296485</v>
       </c>
       <c r="N32">
-        <v>27.87979</v>
+        <v>36.459297</v>
       </c>
       <c r="O32">
-        <v>0.4802889349037177</v>
+        <v>0.7085439801851577</v>
       </c>
       <c r="P32">
-        <v>0.4091514124048364</v>
+        <v>0.7001932751227076</v>
       </c>
       <c r="Q32">
-        <v>1898.811473583628</v>
+        <v>3683.187139623726</v>
       </c>
       <c r="R32">
-        <v>11392.86884150177</v>
+        <v>22099.12283774235</v>
       </c>
       <c r="S32">
-        <v>0.07792055604429651</v>
+        <v>0.1430503039259924</v>
       </c>
       <c r="T32">
-        <v>0.07030722724747757</v>
+        <v>0.1519055503763241</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H33">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I33">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J33">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01764872999083942</v>
+        <v>0.01990943327379303</v>
       </c>
       <c r="P33">
-        <v>0.02255205859890708</v>
+        <v>0.02951217922881346</v>
       </c>
       <c r="Q33">
-        <v>69.77385603835191</v>
+        <v>103.4941664059702</v>
       </c>
       <c r="R33">
-        <v>627.964704345167</v>
+        <v>931.4474976537321</v>
       </c>
       <c r="S33">
-        <v>0.002863274071965747</v>
+        <v>0.004019581790908874</v>
       </c>
       <c r="T33">
-        <v>0.003875271258364715</v>
+        <v>0.006402609090714249</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H34">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I34">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J34">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1702606666666666</v>
+        <v>0.01613733333333333</v>
       </c>
       <c r="N34">
-        <v>0.510782</v>
+        <v>0.048412</v>
       </c>
       <c r="O34">
-        <v>0.005866207331499286</v>
+        <v>0.0006272205626770378</v>
       </c>
       <c r="P34">
-        <v>0.00749600971639195</v>
+        <v>0.0009297424696707817</v>
       </c>
       <c r="Q34">
-        <v>23.19191840158511</v>
+        <v>3.260447868819556</v>
       </c>
       <c r="R34">
-        <v>208.727265614266</v>
+        <v>29.344030819376</v>
       </c>
       <c r="S34">
-        <v>0.0009517149030992907</v>
+        <v>0.0001266316483221484</v>
       </c>
       <c r="T34">
-        <v>0.001288089549739115</v>
+        <v>0.0002017057955017236</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H35">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I35">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J35">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.991516</v>
+        <v>6.884988</v>
       </c>
       <c r="N35">
-        <v>9.983032</v>
+        <v>13.769976</v>
       </c>
       <c r="O35">
-        <v>0.1719790502865958</v>
+        <v>0.267603448363091</v>
       </c>
       <c r="P35">
-        <v>0.1465065426562639</v>
+        <v>0.264449547499533</v>
       </c>
       <c r="Q35">
-        <v>679.9152971651694</v>
+        <v>1391.069019134608</v>
       </c>
       <c r="R35">
-        <v>4079.491782991016</v>
+        <v>8346.414114807649</v>
       </c>
       <c r="S35">
-        <v>0.02790133657563438</v>
+        <v>0.05402735142846064</v>
       </c>
       <c r="T35">
-        <v>0.02517520036710608</v>
+        <v>0.05737180788068334</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H36">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I36">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J36">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>9.215909999999999</v>
+        <v>0.045438</v>
       </c>
       <c r="N36">
-        <v>27.64773</v>
+        <v>0.136314</v>
       </c>
       <c r="O36">
-        <v>0.317527470477254</v>
+        <v>0.001766069234502969</v>
       </c>
       <c r="P36">
-        <v>0.4057458029378114</v>
+        <v>0.00261788224016159</v>
       </c>
       <c r="Q36">
-        <v>1255.33769425911</v>
+        <v>9.180465396808</v>
       </c>
       <c r="R36">
-        <v>11298.03924833199</v>
+        <v>82.624188571272</v>
       </c>
       <c r="S36">
-        <v>0.05151465141266794</v>
+        <v>0.0003565575995493956</v>
       </c>
       <c r="T36">
-        <v>0.0697220185656672</v>
+        <v>0.0005679443899864072</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H37">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I37">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J37">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.194159</v>
+        <v>0.039875</v>
       </c>
       <c r="N37">
-        <v>0.5824769999999999</v>
+        <v>0.119625</v>
       </c>
       <c r="O37">
-        <v>0.006689607010093757</v>
+        <v>0.001549848380778333</v>
       </c>
       <c r="P37">
-        <v>0.008548173685789306</v>
+        <v>0.002297373439113593</v>
       </c>
       <c r="Q37">
-        <v>26.44721046317233</v>
+        <v>8.056495833833333</v>
       </c>
       <c r="R37">
-        <v>238.024894168551</v>
+        <v>72.5084625045</v>
       </c>
       <c r="S37">
-        <v>0.001085300659797263</v>
+        <v>0.000312904051279373</v>
       </c>
       <c r="T37">
-        <v>0.001468889930857764</v>
+        <v>0.0004984106375876577</v>
       </c>
     </row>
   </sheetData>
